--- a/public/parking.xlsx
+++ b/public/parking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meowulf\Documents\Git Sync\kkn_ppm\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5AD81A-C16E-4F89-BFC1-E81D13483DE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5C8C0B-50C8-4009-96B1-6CFCE094CA09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>Masuk Senggol</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>119.621616</t>
-  </si>
-  <si>
-    <t>-4.013182</t>
   </si>
   <si>
     <t>119.621621</t>
@@ -617,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +633,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>27</v>
@@ -657,7 +654,7 @@
         <v>4157142.8571428573</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -665,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -686,7 +683,7 @@
         <v>23586428.571428571</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -694,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -715,7 +712,7 @@
         <v>3687857.1428571432</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -723,7 +720,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -744,7 +741,7 @@
         <v>5352857.1428571427</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -752,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -761,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7">
         <v>119.62564364075</v>
@@ -773,7 +770,7 @@
         <v>1971428.5714285714</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -781,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -802,7 +799,7 @@
         <v>2680714.2857142854</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -810,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -831,7 +828,7 @@
         <v>2672142.8571428568</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,7 +836,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -860,7 +857,7 @@
         <v>4253571.4285714291</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,7 +865,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
@@ -889,7 +886,7 @@
         <v>1002857.1428571428</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,7 +894,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>31</v>
@@ -918,7 +915,7 @@
         <v>2078571.4285714286</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -926,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -947,7 +944,7 @@
         <v>1367142.8571428573</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -955,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -976,7 +973,7 @@
         <v>4821428.5714285709</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -984,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -1005,7 +1002,7 @@
         <v>6717857.1428571427</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1013,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -1034,7 +1031,7 @@
         <v>5370000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1042,7 +1039,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1063,7 +1060,7 @@
         <v>5775000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1071,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1092,7 +1089,7 @@
         <v>12797142.857142858</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -1108,11 +1105,11 @@
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="8">
+        <v>-4.0131819999999996</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="G17" s="2">
         <v>600000</v>
@@ -1121,7 +1118,7 @@
         <v>1262142.8571428573</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1129,7 +1126,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
@@ -1150,7 +1147,7 @@
         <v>2089285.7142857143</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1158,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -1179,7 +1176,7 @@
         <v>3443571.4285714286</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1187,7 +1184,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -1208,7 +1205,7 @@
         <v>1611428.5714285716</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1216,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -1237,7 +1234,7 @@
         <v>5685000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1245,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -1266,7 +1263,7 @@
         <v>6814285.7142857136</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
@@ -1295,7 +1292,7 @@
         <v>2702142.8571428568</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,7 +1300,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -1324,7 +1321,7 @@
         <v>6220714.2857142864</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1332,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>0</v>
@@ -1353,7 +1350,7 @@
         <v>5835000</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,7 +1358,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -1382,7 +1379,7 @@
         <v>6312857.1428571427</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1390,7 +1387,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>25</v>
@@ -1411,7 +1408,7 @@
         <v>1052142.8571428573</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1419,7 +1416,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>33</v>
@@ -1440,7 +1437,7 @@
         <v>4000000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1448,7 +1445,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1469,7 +1466,7 @@
         <v>4000000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1477,7 +1474,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>35</v>
@@ -1498,7 +1495,7 @@
         <v>4000000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1506,7 +1503,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1527,7 +1524,7 @@
         <v>4000000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1535,7 +1532,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>37</v>
@@ -1556,7 +1553,7 @@
         <v>4000000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
